--- a/Test_Regestratrion/input_test_data_reg.xlsx
+++ b/Test_Regestratrion/input_test_data_reg.xlsx
@@ -93,7 +93,7 @@
     <t>password123</t>
   </si>
   <si>
-    <t>JnKow13323@gmail.com</t>
+    <t>JanKow4321@gmail.com</t>
   </si>
 </sst>
 </file>
